--- a/docs/ASISTENCIA.xlsx
+++ b/docs/ASISTENCIA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EGCC\UCH_INGSOFT3_001\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\UCH_INGSOFT3_001\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -171,19 +171,19 @@
     <t>NOMBRE COMPLETO</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,6 +357,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -392,6 +409,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +589,8 @@
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="8"/>
+    <col min="4" max="4" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -586,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -620,10 +655,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,10 +672,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -654,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,10 +706,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -688,10 +723,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -705,10 +740,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,10 +757,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -739,10 +774,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,10 +791,10 @@
         <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,10 +808,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,10 +825,10 @@
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -807,10 +842,10 @@
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,10 +859,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -841,10 +876,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +893,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,10 +910,10 @@
         <v>17</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,10 +927,10 @@
         <v>18</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -909,10 +944,10 @@
         <v>19</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,10 +961,10 @@
         <v>20</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,10 +978,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,10 +995,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,10 +1012,10 @@
         <v>23</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -994,10 +1029,10 @@
         <v>24</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1011,10 +1046,10 @@
         <v>25</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1028,10 +1063,10 @@
         <v>26</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,10 +1080,10 @@
         <v>27</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1062,10 +1097,10 @@
         <v>28</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1114,10 @@
         <v>29</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,10 +1131,10 @@
         <v>30</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1113,10 +1148,10 @@
         <v>31</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,10 +1165,10 @@
         <v>32</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,10 +1182,10 @@
         <v>33</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,10 +1199,10 @@
         <v>34</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,10 +1216,10 @@
         <v>35</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1198,10 +1233,10 @@
         <v>36</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1215,10 +1250,10 @@
         <v>37</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,10 +1267,10 @@
         <v>38</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1249,10 +1284,10 @@
         <v>39</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1266,10 +1301,10 @@
         <v>40</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,10 +1318,10 @@
         <v>41</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,10 +1335,10 @@
         <v>42</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ASISTENCIA.xlsx
+++ b/docs/ASISTENCIA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EGCC\UCH_INGSOFT3_001\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EGCC\UCH_INGSOFT3_001\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,9 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="51">
   <si>
     <t>ALMANACIN CHAVEZ JORGE LUIS</t>
   </si>
@@ -183,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -264,12 +267,46 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -357,23 +394,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -409,23 +429,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,9 +594,10 @@
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
     <col min="4" max="4" width="0" style="8" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="8"/>
+    <col min="6" max="6" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -609,8 +613,11 @@
       <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="9">
+        <v>42515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -626,8 +633,11 @@
       <c r="E2" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -643,8 +653,11 @@
       <c r="E3" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -660,8 +673,11 @@
       <c r="E4" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -677,8 +693,11 @@
       <c r="E5" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -694,8 +713,11 @@
       <c r="E6" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -711,8 +733,11 @@
       <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -728,8 +753,11 @@
       <c r="E8" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -745,8 +773,11 @@
       <c r="E9" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -762,8 +793,11 @@
       <c r="E10" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -779,8 +813,11 @@
       <c r="E11" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -796,8 +833,11 @@
       <c r="E12" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -813,8 +853,11 @@
       <c r="E13" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -830,8 +873,11 @@
       <c r="E14" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -847,8 +893,11 @@
       <c r="E15" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -864,8 +913,11 @@
       <c r="E16" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -881,8 +933,11 @@
       <c r="E17" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -898,8 +953,11 @@
       <c r="E18" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -915,8 +973,11 @@
       <c r="E19" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -932,8 +993,11 @@
       <c r="E20" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -949,8 +1013,11 @@
       <c r="E21" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -966,8 +1033,11 @@
       <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -983,8 +1053,11 @@
       <c r="E23" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1000,8 +1073,11 @@
       <c r="E24" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1017,8 +1093,11 @@
       <c r="E25" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1034,8 +1113,11 @@
       <c r="E26" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1051,8 +1133,11 @@
       <c r="E27" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1068,8 +1153,11 @@
       <c r="E28" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1085,8 +1173,11 @@
       <c r="E29" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1102,8 +1193,11 @@
       <c r="E30" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1119,8 +1213,11 @@
       <c r="E31" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1136,8 +1233,11 @@
       <c r="E32" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1153,8 +1253,11 @@
       <c r="E33" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1170,8 +1273,11 @@
       <c r="E34" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1187,8 +1293,11 @@
       <c r="E35" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1204,8 +1313,11 @@
       <c r="E36" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1221,8 +1333,11 @@
       <c r="E37" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1238,8 +1353,11 @@
       <c r="E38" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1255,8 +1373,11 @@
       <c r="E39" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1272,8 +1393,11 @@
       <c r="E40" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1289,8 +1413,11 @@
       <c r="E41" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1306,8 +1433,11 @@
       <c r="E42" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1323,8 +1453,11 @@
       <c r="E43" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1339,6 +1472,9 @@
       </c>
       <c r="E44" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ASISTENCIA.xlsx
+++ b/docs/ASISTENCIA.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="53">
   <si>
     <t>ALMANACIN CHAVEZ JORGE LUIS</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>25-MAY</t>
+  </si>
+  <si>
+    <t>01-JUN</t>
   </si>
 </sst>
 </file>
@@ -245,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,10 +273,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,12 +604,12 @@
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="8"/>
-    <col min="6" max="6" width="11.42578125" style="10"/>
+    <col min="4" max="5" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -613,11 +625,14 @@
       <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="9">
-        <v>42515</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -633,11 +648,14 @@
       <c r="E2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -653,11 +671,14 @@
       <c r="E3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -673,11 +694,14 @@
       <c r="E4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -693,11 +717,14 @@
       <c r="E5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -713,11 +740,14 @@
       <c r="E6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -733,11 +763,14 @@
       <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -753,11 +786,14 @@
       <c r="E8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -773,11 +809,14 @@
       <c r="E9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -793,11 +832,14 @@
       <c r="E10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -813,11 +855,14 @@
       <c r="E11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -833,11 +878,14 @@
       <c r="E12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -853,11 +901,14 @@
       <c r="E13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -873,11 +924,14 @@
       <c r="E14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -893,11 +947,14 @@
       <c r="E15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -913,11 +970,14 @@
       <c r="E16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -933,11 +993,14 @@
       <c r="E17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -953,11 +1016,14 @@
       <c r="E18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -973,11 +1039,14 @@
       <c r="E19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -993,11 +1062,14 @@
       <c r="E20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1013,11 +1085,14 @@
       <c r="E21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1033,11 +1108,14 @@
       <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1053,11 +1131,14 @@
       <c r="E23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1073,11 +1154,14 @@
       <c r="E24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1093,11 +1177,14 @@
       <c r="E25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1113,11 +1200,14 @@
       <c r="E26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1133,11 +1223,14 @@
       <c r="E27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1153,11 +1246,14 @@
       <c r="E28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1173,11 +1269,14 @@
       <c r="E29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1193,11 +1292,14 @@
       <c r="E30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1213,11 +1315,14 @@
       <c r="E31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1233,11 +1338,14 @@
       <c r="E32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1253,11 +1361,14 @@
       <c r="E33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1273,11 +1384,14 @@
       <c r="E34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1293,11 +1407,14 @@
       <c r="E35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1313,11 +1430,14 @@
       <c r="E36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1333,11 +1453,14 @@
       <c r="E37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1353,11 +1476,14 @@
       <c r="E38" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1373,11 +1499,14 @@
       <c r="E39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1393,11 +1522,14 @@
       <c r="E40" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1413,11 +1545,14 @@
       <c r="E41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1433,11 +1568,14 @@
       <c r="E42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1453,11 +1591,14 @@
       <c r="E43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1473,8 +1614,11 @@
       <c r="E44" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>50</v>
+      <c r="F44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ASISTENCIA.xlsx
+++ b/docs/ASISTENCIA.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="55">
   <si>
     <t>ALMANACIN CHAVEZ JORGE LUIS</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>01-JUN</t>
+  </si>
+  <si>
+    <t>08-JUN</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -593,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,11 +611,11 @@
     <col min="2" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
     <col min="4" max="5" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="9"/>
+    <col min="6" max="7" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -631,8 +637,11 @@
       <c r="G1" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -654,8 +663,11 @@
       <c r="G2" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -677,8 +689,11 @@
       <c r="G3" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -700,8 +715,11 @@
       <c r="G4" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -723,8 +741,11 @@
       <c r="G5" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -746,8 +767,11 @@
       <c r="G6" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -769,8 +793,11 @@
       <c r="G7" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -792,8 +819,11 @@
       <c r="G8" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -815,8 +845,11 @@
       <c r="G9" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -838,8 +871,11 @@
       <c r="G10" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -861,8 +897,11 @@
       <c r="G11" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -884,8 +923,11 @@
       <c r="G12" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -907,8 +949,11 @@
       <c r="G13" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -930,8 +975,11 @@
       <c r="G14" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -953,8 +1001,11 @@
       <c r="G15" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -976,8 +1027,11 @@
       <c r="G16" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -999,8 +1053,11 @@
       <c r="G17" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1022,8 +1079,11 @@
       <c r="G18" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1045,8 +1105,11 @@
       <c r="G19" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1068,8 +1131,11 @@
       <c r="G20" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1091,8 +1157,11 @@
       <c r="G21" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1114,8 +1183,11 @@
       <c r="G22" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1137,8 +1209,11 @@
       <c r="G23" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1160,8 +1235,11 @@
       <c r="G24" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1183,8 +1261,11 @@
       <c r="G25" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1206,8 +1287,11 @@
       <c r="G26" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1229,8 +1313,11 @@
       <c r="G27" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1252,8 +1339,11 @@
       <c r="G28" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1275,8 +1365,11 @@
       <c r="G29" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1298,8 +1391,11 @@
       <c r="G30" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1321,8 +1417,11 @@
       <c r="G31" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1344,8 +1443,11 @@
       <c r="G32" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1367,8 +1469,11 @@
       <c r="G33" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1390,8 +1495,11 @@
       <c r="G34" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1413,8 +1521,11 @@
       <c r="G35" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1436,8 +1547,11 @@
       <c r="G36" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1459,8 +1573,11 @@
       <c r="G37" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1482,8 +1599,11 @@
       <c r="G38" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1505,8 +1625,11 @@
       <c r="G39" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1528,8 +1651,11 @@
       <c r="G40" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1551,8 +1677,11 @@
       <c r="G41" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1574,8 +1703,11 @@
       <c r="G42" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1597,8 +1729,11 @@
       <c r="G43" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1619,6 +1754,15 @@
       </c>
       <c r="G44" s="12" t="s">
         <v>48</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <f>COUNTIF(H2:H44,"=P")</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ASISTENCIA.xlsx
+++ b/docs/ASISTENCIA.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="56">
   <si>
     <t>ALMANACIN CHAVEZ JORGE LUIS</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>15-JUN</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,6 +292,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,12 +616,13 @@
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="5" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="4" max="5" width="11.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -640,8 +647,11 @@
       <c r="H1" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -666,8 +676,11 @@
       <c r="H2" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -692,8 +705,11 @@
       <c r="H3" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -718,8 +734,11 @@
       <c r="H4" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -744,8 +763,11 @@
       <c r="H5" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -770,8 +792,11 @@
       <c r="H6" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -796,8 +821,11 @@
       <c r="H7" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -822,8 +850,11 @@
       <c r="H8" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -848,8 +879,11 @@
       <c r="H9" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -874,8 +908,11 @@
       <c r="H10" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -900,8 +937,11 @@
       <c r="H11" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -926,8 +966,11 @@
       <c r="H12" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -952,8 +995,11 @@
       <c r="H13" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -978,8 +1024,11 @@
       <c r="H14" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1004,8 +1053,11 @@
       <c r="H15" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1030,8 +1082,11 @@
       <c r="H16" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1056,8 +1111,11 @@
       <c r="H17" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1082,8 +1140,11 @@
       <c r="H18" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1108,8 +1169,11 @@
       <c r="H19" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1134,8 +1198,11 @@
       <c r="H20" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1160,8 +1227,11 @@
       <c r="H21" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1186,8 +1256,11 @@
       <c r="H22" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1212,8 +1285,11 @@
       <c r="H23" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1238,8 +1314,11 @@
       <c r="H24" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1264,8 +1343,11 @@
       <c r="H25" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1290,8 +1372,11 @@
       <c r="H26" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1316,8 +1401,11 @@
       <c r="H27" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1342,8 +1430,11 @@
       <c r="H28" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1368,8 +1459,11 @@
       <c r="H29" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1394,8 +1488,11 @@
       <c r="H30" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1420,8 +1517,11 @@
       <c r="H31" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1446,8 +1546,11 @@
       <c r="H32" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1472,8 +1575,11 @@
       <c r="H33" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1498,8 +1604,11 @@
       <c r="H34" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1524,8 +1633,11 @@
       <c r="H35" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1550,8 +1662,11 @@
       <c r="H36" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1576,8 +1691,11 @@
       <c r="H37" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1602,8 +1720,11 @@
       <c r="H38" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1628,8 +1749,11 @@
       <c r="H39" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1654,8 +1778,11 @@
       <c r="H40" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -1680,8 +1807,11 @@
       <c r="H41" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1706,8 +1836,11 @@
       <c r="H42" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -1732,8 +1865,11 @@
       <c r="H43" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1758,11 +1894,18 @@
       <c r="H44" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H45" s="1">
         <f>COUNTIF(H2:H44,"=P")</f>
         <v>9</v>
+      </c>
+      <c r="I45" s="1">
+        <f>COUNTIF(I2:I44,"=P")</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
